--- a/To-Do Liste.xlsx
+++ b/To-Do Liste.xlsx
@@ -24,15 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Aufgabe</t>
   </si>
   <si>
-    <t>Go Button erweitern</t>
-  </si>
-  <si>
-    <t>Mystery Color Programmieren</t>
+    <t>Nummer</t>
   </si>
 </sst>
 </file>
@@ -353,18 +350,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B4"/>
+  <dimension ref="A2:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -373,16 +376,16 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>2</v>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
